--- a/Experiments/240507_buffers/datacompiled.xlsx
+++ b/Experiments/240507_buffers/datacompiled.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/240507_buffers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BC96A0-4D1E-3F40-AF80-8292826CD4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="23600" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="malate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>hepes_neg</t>
   </si>
@@ -68,6 +49,9 @@
     <t>1312.43</t>
   </si>
   <si>
+    <t>1053.25</t>
+  </si>
+  <si>
     <t>517348.03</t>
   </si>
   <si>
@@ -116,6 +100,12 @@
     <t>367623.67</t>
   </si>
   <si>
+    <t>13551.09</t>
+  </si>
+  <si>
+    <t>7314.35</t>
+  </si>
+  <si>
     <t>244315.33</t>
   </si>
   <si>
@@ -140,6 +130,9 @@
     <t>207369.25</t>
   </si>
   <si>
+    <t>4196.60</t>
+  </si>
+  <si>
     <t>86676.04</t>
   </si>
   <si>
@@ -158,20 +151,29 @@
     <t>375465.00</t>
   </si>
   <si>
+    <t>10187.97</t>
+  </si>
+  <si>
+    <t>11661.06</t>
+  </si>
+  <si>
     <t>76853.96</t>
   </si>
   <si>
     <t>95988.14</t>
   </si>
   <si>
-    <t>Y = 3116110*X + 180994</t>
+    <t>11135.37</t>
+  </si>
+  <si>
+    <t>12803.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,21 +236,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -320,7 +314,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -355,10 +348,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,16 +523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -559,292 +549,181 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <f>((B2-180994)/3116110)*1000</f>
-        <v>-57.662139654890233</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:H2" si="0">((C2-180994)/3116110)*1000</f>
-        <v>-53.256797738205648</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>-56.477486353177518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F12" si="1">((B3-180994)/3116110)*1000</f>
-        <v>-56.897253306205492</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G12" si="2">((C3-180994)/3116110)*1000</f>
-        <v>-44.706204209735859</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H12" si="3">((D3-180994)/3116110)*1000</f>
-        <v>-8.2548433784429953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>107.94035833138112</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>113.87446848795453</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>112.10380891560312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>27.052937797446173</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>29.707048210749939</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>44.676295124369801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>83.774972642172457</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>87.027470147074396</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>94.419292001886973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>13.30838770133275</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>9.0000802282332746</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>8.464158839065373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>62.143836385750191</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>59.891874805446527</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>62.408259015246578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>-40.656427404680834</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>-30.267853188751364</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>-33.419885690813224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>-24.32159647765965</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>-14.327430674783628</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>-27.279479864318013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>23.661119151762932</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>20.320633738860309</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>19.733160896117276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>79.367660320078556</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>82.083700511214317</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>95.453629685729965</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
